--- a/FOREX/data/FOREX_3A_historical.xlsx
+++ b/FOREX/data/FOREX_3A_historical.xlsx
@@ -7402,7 +7402,9 @@
       <c r="CD33" t="n">
         <v>129.314547431641</v>
       </c>
-      <c r="CE33" t="inlineStr"/>
+      <c r="CE33" t="n">
+        <v>136.535977259399</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -21404,7 +21406,9 @@
       <c r="CD99" t="n">
         <v>2088.389275761</v>
       </c>
-      <c r="CE99" t="inlineStr"/>
+      <c r="CE99" t="n">
+        <v>2029.41106490896</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -24716,7 +24720,9 @@
       <c r="CD115" t="n">
         <v>13357.0497540742</v>
       </c>
-      <c r="CE115" t="inlineStr"/>
+      <c r="CE115" t="n">
+        <v>15452.9155639034</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -41950,7 +41956,9 @@
       <c r="CD197" t="n">
         <v>3310.40644590013</v>
       </c>
-      <c r="CE197" t="inlineStr"/>
+      <c r="CE197" t="n">
+        <v>3215.71955078636</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -42901,7 +42909,7 @@
         <v>3.27408153226204</v>
       </c>
       <c r="CE201" t="n">
-        <v>3.19834058013768</v>
+        <v>3.18306535789914</v>
       </c>
     </row>
     <row r="202">
@@ -43599,7 +43607,9 @@
       <c r="CD204" t="n">
         <v>10.5817964468577</v>
       </c>
-      <c r="CE204" t="inlineStr"/>
+      <c r="CE204" t="n">
+        <v>18.1796042788383</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">

--- a/FOREX/data/FOREX_3A_historical.xlsx
+++ b/FOREX/data/FOREX_3A_historical.xlsx
@@ -17211,7 +17211,9 @@
       <c r="CD80" t="n">
         <v>8.29623441809553</v>
       </c>
-      <c r="CE80" t="inlineStr"/>
+      <c r="CE80" t="n">
+        <v>8.406100549620501</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -37488,7 +37490,9 @@
       <c r="CD175" t="n">
         <v>14594.7516617097</v>
       </c>
-      <c r="CE175" t="inlineStr"/>
+      <c r="CE175" t="n">
+        <v>15709.8879905052</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
